--- a/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
+++ b/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="非车险" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="199">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,10 +457,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CheckBox 已审核未收费凭证号 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择后的保单列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -484,10 +480,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此可以修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总计：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -567,10 +559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CheckBox 已审核未解付通知书 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本期应解付保费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -687,10 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CheckBox 已开票未结算开票通知书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>打印经纪费入账单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,7 +687,129 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>=开票金额</t>
+    <t>CheckBox 仅显示客户欠费保单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（车险/非车险）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此部分可以修改</t>
+  </si>
+  <si>
+    <t>此部分可以修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：根据查询条件显示所有符合条件的保单，查询列表中保单可以单选，也可以全选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保单数：2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：实收保费、实收金额、金额调整的数据是根据选择的保单列表自动得出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox 仅显示已收费未解付保单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已收保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保险公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分支结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>险种名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(代收、直付)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（内扣、不内扣）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：经纪费、本期解付保费、实际解付金额、调整金额的数据是根据选择的保单列表自动得出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投保单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次应收保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本期应解付保费</t>
+  </si>
+  <si>
+    <t>实收经纪费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox 已开票未结算保单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,6 +873,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -790,7 +904,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -830,6 +944,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -837,6 +954,66 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4229101" y="2257425"/>
+          <a:ext cx="95250" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1117,7 +1294,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
@@ -1690,7 +1893,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C20" sqref="C20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1756,7 +1959,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>64</v>
@@ -1979,20 +2182,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="9" style="2"/>
@@ -2007,7 +2210,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>100</v>
@@ -2041,7 +2244,7 @@
         <v>70</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G4" s="12"/>
     </row>
@@ -2052,10 +2255,10 @@
     </row>
     <row r="7" spans="1:11">
       <c r="B7" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>58</v>
@@ -2106,7 +2309,7 @@
     <row r="11" spans="1:11">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2125,8 +2328,10 @@
       </c>
     </row>
     <row r="15" spans="1:11">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="E15" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -2137,138 +2342,218 @@
     </row>
     <row r="16" spans="1:11">
       <c r="E16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:12">
-      <c r="E17" s="2" t="s">
+    <row r="18" spans="2:15">
+      <c r="E18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G18" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="J19" s="13" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15">
+      <c r="D20" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="J21" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15">
+      <c r="B26" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="19" spans="2:12">
-      <c r="D19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12">
-      <c r="B23" s="2" t="s">
+    <row r="27" spans="2:15" ht="12.75">
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="24" spans="2:12" ht="12.75">
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="8" t="s">
+      <c r="H27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="F28" s="2">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="2">
+        <v>400</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="F29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="2">
+        <v>400</v>
+      </c>
+      <c r="H29" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="C34" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F34" s="2">
+        <v>3000</v>
+      </c>
+      <c r="G34" s="2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="10.5" customHeight="1"/>
+    <row r="37" spans="2:10">
+      <c r="B37" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="I24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="10" t="s">
+    </row>
+    <row r="38" spans="2:10">
+      <c r="C38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="K24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12">
-      <c r="F25" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G25" s="2">
-        <v>400</v>
-      </c>
-      <c r="H25" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="28" spans="2:12">
-      <c r="B28" s="2" t="s">
+      <c r="J38" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="C39" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="C40" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="29" spans="2:12">
-      <c r="C29" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G29" s="2" t="s">
+    <row r="42" spans="2:10">
+      <c r="D42" s="8" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="2:12">
-      <c r="C30" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="C31" s="2" t="s">
+      <c r="E42" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="33" spans="3:7">
-      <c r="D33" s="8" t="s">
+      <c r="F42" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="G42" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7">
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2276,15 +2561,17 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2295,8 +2582,8 @@
     <col min="4" max="4" width="11" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="2" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="2" customWidth="1"/>
     <col min="9" max="11" width="9" style="2"/>
     <col min="12" max="12" width="10.5" style="2" customWidth="1"/>
     <col min="13" max="16384" width="9" style="2"/>
@@ -2309,10 +2596,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2345,7 +2632,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
@@ -2354,21 +2641,21 @@
         <v>70</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -2377,13 +2664,13 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>106</v>
@@ -2395,7 +2682,7 @@
         <v>17</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2403,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2434,8 +2721,10 @@
       </c>
     </row>
     <row r="15" spans="1:12">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="E15" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -2446,188 +2735,226 @@
     </row>
     <row r="16" spans="1:12">
       <c r="E16" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="E17" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:13">
-      <c r="E17" s="2" t="s">
+    <row r="18" spans="2:16">
+      <c r="E18" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="D19" s="2" t="s">
+      <c r="G18" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
+      <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
+      <c r="C25" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G25" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="J19" s="2" t="s">
+      <c r="K25" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="9" customHeight="1">
+      <c r="B26" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
+      <c r="L27" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
+      <c r="L28" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
+      <c r="B29" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16">
+      <c r="B30" s="8"/>
+      <c r="C30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16">
+      <c r="C31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="12.75">
-      <c r="C24" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="K24" s="2" t="s">
+    </row>
+    <row r="32" spans="2:16">
+      <c r="C32" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" ht="9" customHeight="1">
-      <c r="B25" s="2" t="s">
+      <c r="J33" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="D36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="F37" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="K25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="K26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="K27" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" s="8"/>
-      <c r="C29" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="C30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="C31" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="C32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8">
-      <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8">
-      <c r="D35" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8">
-      <c r="F36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2635,15 +2962,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2669,7 +2997,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -2678,7 +3006,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2705,7 +3033,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
@@ -2714,21 +3042,21 @@
         <v>70</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -2737,16 +3065,16 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>106</v>
@@ -2755,7 +3083,7 @@
         <v>107</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2792,7 +3120,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -2801,7 +3129,7 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2809,7 +3137,7 @@
         <v>77</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>31</v>
@@ -2818,9 +3146,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:15">
       <c r="E17" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>81</v>
@@ -2829,10 +3157,10 @@
         <v>58</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="D19" s="2" t="s">
         <v>108</v>
       </c>
@@ -2843,16 +3171,16 @@
         <v>31</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>107</v>
@@ -2861,112 +3189,93 @@
         <v>17</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N19" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="E20" s="2">
-        <v>11</v>
-      </c>
-      <c r="F20" s="2">
-        <v>12</v>
-      </c>
-      <c r="G20" s="2">
-        <v>13</v>
-      </c>
-      <c r="H20" s="2">
-        <v>1</v>
-      </c>
-      <c r="I20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="E21" s="2">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <v>14</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="O19" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="12.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" ht="12.75">
       <c r="C24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G24" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="H24" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="L24" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15">
       <c r="B25" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
+        <v>142</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
       <c r="B28" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
       <c r="C29" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
       <c r="C30" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E30" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="C31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="C31" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
+    </row>
+    <row r="32" spans="2:15">
       <c r="C32" s="2" t="s">
         <v>23</v>
       </c>
@@ -2976,29 +3285,29 @@
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="3:8">
       <c r="D35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="G36" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="3:8">
@@ -3017,10 +3326,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3048,7 +3357,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>55</v>
@@ -3057,7 +3366,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -3084,7 +3393,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>61</v>
@@ -3093,21 +3402,21 @@
         <v>70</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G5" s="12"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -3116,16 +3425,16 @@
         <v>31</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>105</v>
@@ -3134,7 +3443,7 @@
         <v>106</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3171,7 +3480,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="E15" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>13</v>
@@ -3180,15 +3489,21 @@
         <v>65</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="E16" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15">
+        <v>152</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17">
       <c r="E17" s="2" t="s">
         <v>77</v>
       </c>
@@ -3200,9 +3515,9 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:17">
       <c r="E18" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>81</v>
@@ -3211,150 +3526,124 @@
         <v>58</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
       <c r="D20" s="2" t="s">
         <v>108</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O20" s="2" t="s">
+      <c r="P20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
-      <c r="E21" s="2">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2">
-        <v>12</v>
-      </c>
-      <c r="G21" s="2">
-        <v>13</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1</v>
-      </c>
-      <c r="I21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15">
-      <c r="E22" s="2">
-        <v>11</v>
-      </c>
-      <c r="F22" s="2">
-        <v>12</v>
-      </c>
-      <c r="G22" s="2">
-        <v>14</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:17">
       <c r="B24" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" ht="12.75">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" ht="12.75">
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:17">
       <c r="B26" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="I26" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L26" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15">
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15">
-      <c r="E28" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="2:15">
+    </row>
+    <row r="27" spans="2:17">
+      <c r="G27" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
       <c r="B29" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17">
       <c r="C30" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
       <c r="C31" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>171</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D31" s="11"/>
       <c r="E31" s="2" t="s">
-        <v>105</v>
+        <v>197</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="2:15">
+    <row r="32" spans="2:17">
       <c r="C32" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="3:8">
@@ -3367,29 +3656,29 @@
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="3:8">
       <c r="D36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="3:8">
       <c r="G37" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="3:8">

--- a/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
+++ b/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="非车险" sheetId="1" r:id="rId1"/>
@@ -2571,7 +2571,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2970,8 +2970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3328,7 +3328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>

--- a/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
+++ b/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15480" windowHeight="11640" tabRatio="590" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="非车险" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="203">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -810,6 +810,22 @@
   </si>
   <si>
     <t>CheckBox 已开票未结算保单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其中：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业险保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交强险保费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车船税</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2182,10 +2198,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="C42" sqref="C42:H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2537,23 +2553,39 @@
       </c>
     </row>
     <row r="42" spans="2:10">
-      <c r="D42" s="8" t="s">
+      <c r="C42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="G43" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="D44" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F44" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2568,10 +2600,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2927,34 +2959,48 @@
       </c>
     </row>
     <row r="36" spans="3:10">
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10">
+      <c r="D38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="3:10">
-      <c r="F37" s="2" t="s">
+    <row r="39" spans="3:10">
+      <c r="F39" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="3:10">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+    <row r="40" spans="3:10">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2968,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3289,31 +3335,42 @@
       </c>
     </row>
     <row r="35" spans="3:8">
-      <c r="D35" s="8" t="s">
+      <c r="C35" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
+      <c r="D37" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E37" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F37" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G37" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:8">
-      <c r="G36" s="2" t="s">
+    <row r="38" spans="3:8">
+      <c r="G38" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
+    <row r="39" spans="3:8">
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3326,10 +3383,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3660,31 +3717,42 @@
       </c>
     </row>
     <row r="36" spans="3:8">
-      <c r="D36" s="8" t="s">
+      <c r="C36" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
+      <c r="D38" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E38" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F38" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G38" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="3:8">
-      <c r="G37" s="2" t="s">
+    <row r="39" spans="3:8">
+      <c r="G39" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="3:8">
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
+    <row r="40" spans="3:8">
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
+++ b/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="非车险" sheetId="1" r:id="rId1"/>
     <sheet name="车险" sheetId="2" r:id="rId2"/>
-    <sheet name="车险保单查询界面" sheetId="3" r:id="rId3"/>
+    <sheet name="车险保单号录入" sheetId="3" r:id="rId3"/>
     <sheet name="保费通知书" sheetId="4" r:id="rId4"/>
     <sheet name="客户收费" sheetId="5" r:id="rId5"/>
     <sheet name="解付保费" sheetId="6" r:id="rId6"/>

--- a/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
+++ b/SHEIB/Docs/需求开发/各模块需求汇总/修改记录0514.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="非车险" sheetId="1" r:id="rId1"/>
     <sheet name="车险" sheetId="2" r:id="rId2"/>
-    <sheet name="车险保单号录入" sheetId="3" r:id="rId3"/>
+    <sheet name="车险保单查询" sheetId="3" r:id="rId3"/>
     <sheet name="保费通知书" sheetId="4" r:id="rId4"/>
     <sheet name="客户收费" sheetId="5" r:id="rId5"/>
     <sheet name="解付保费" sheetId="6" r:id="rId6"/>
